--- a/biology/Biochimie/Acide_obéticholique/Acide_obéticholique.xlsx
+++ b/biology/Biochimie/Acide_obéticholique/Acide_obéticholique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_ob%C3%A9ticholique</t>
+          <t>Acide_obéticholique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide obéticholique (ou acide 6-éthylchénodésoxycholique) est un acide biliaire synthétique proche de l'acide chénodésoxycholique. Il est utilisé comme traitement de la stéatose hépatique non alcoolique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_ob%C3%A9ticholique</t>
+          <t>Acide_obéticholique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un stimulateur du récepteur farnésoïde X.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_ob%C3%A9ticholique</t>
+          <t>Acide_obéticholique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur un modèle animal de rats obèses, il améliore la résistance à l'insuline, semble protéger contre la survenue d'une stéatose hépatique[3]. Chez des rats cirrhotiques, il améliore l'hypertension portale[4].
-Chez les patients porteurs d'une stéatose hépatique non alcoolique, il améliore les lésions histologiques[5] ainsi que le bilan biologique hépatique et la résistance à l'insuline[6].
-Il est également en cours de test dans la cirrhose biliaire primitive avec des résultats favorables[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur un modèle animal de rats obèses, il améliore la résistance à l'insuline, semble protéger contre la survenue d'une stéatose hépatique. Chez des rats cirrhotiques, il améliore l'hypertension portale.
+Chez les patients porteurs d'une stéatose hépatique non alcoolique, il améliore les lésions histologiques ainsi que le bilan biologique hépatique et la résistance à l'insuline.
+Il est également en cours de test dans la cirrhose biliaire primitive avec des résultats favorables.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_ob%C3%A9ticholique</t>
+          <t>Acide_obéticholique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principal effet indésirable est la survenue d'un prurit[5],[7]. Il est peut-être lié à des effets hépatiques graves, parfois mortels[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal effet indésirable est la survenue d'un prurit,. Il est peut-être lié à des effets hépatiques graves, parfois mortels.
 </t>
         </is>
       </c>
